--- a/soc_experiment_data_final_data_01082020.xlsx
+++ b/soc_experiment_data_final_data_01082020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454DFD88-AF9F-443E-BB02-8649C2E79B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F800A33-62A9-4D2F-89E5-44BBEACB46B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,9 +395,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J993"/>
+  <dimension ref="A1:J992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -446,15 +446,45 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>15257</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
     <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>15257</v>
+        <v>15258</v>
       </c>
       <c r="B3" s="2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -469,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -478,25 +508,25 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>15258</v>
+        <v>15269</v>
       </c>
       <c r="B4" s="2">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -508,10 +538,10 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>15269</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3.2</v>
+        <v>15271</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -526,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -538,13 +568,13 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>15271</v>
+        <v>15291</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -568,18 +598,18 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>15291</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15294</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="1">
@@ -589,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -598,43 +628,43 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>15294</v>
+        <v>15295</v>
       </c>
       <c r="B8" s="2">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>15295</v>
+        <v>15264</v>
       </c>
       <c r="B9" s="2">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -646,22 +676,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>15264</v>
+        <v>15270</v>
       </c>
       <c r="B10" s="2">
-        <v>3.7</v>
+        <v>2.12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -682,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>14</v>
@@ -690,45 +722,43 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>15270</v>
+        <v>15296</v>
       </c>
       <c r="B11" s="2">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>15296</v>
+        <v>15297</v>
       </c>
       <c r="B12" s="2">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -740,25 +770,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
       </c>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>15297</v>
+        <v>15299</v>
       </c>
       <c r="B13" s="2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -770,22 +800,24 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>15299</v>
+        <v>15303</v>
       </c>
       <c r="B14" s="2">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -800,21 +832,21 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15303</v>
+        <v>15307</v>
       </c>
       <c r="B15" s="2">
         <v>2.9</v>
@@ -832,27 +864,25 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15307</v>
+        <v>15309</v>
       </c>
       <c r="B16" s="2">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -876,10 +906,10 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15309</v>
+        <v>15310</v>
       </c>
       <c r="B17" s="2">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -897,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -906,28 +936,28 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>15310</v>
+        <v>15311</v>
       </c>
       <c r="B18" s="2">
-        <v>3.8</v>
+        <v>2.12</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -936,25 +966,25 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>15311</v>
+        <v>15313</v>
       </c>
       <c r="B19" s="2">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -966,28 +996,28 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>15313</v>
+        <v>15314</v>
       </c>
       <c r="B20" s="2">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
         <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -996,13 +1026,13 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>15314</v>
+        <v>15318</v>
       </c>
       <c r="B21" s="2">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>8</v>
@@ -1017,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1026,13 +1056,13 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>15318</v>
+        <v>15322</v>
       </c>
       <c r="B22" s="2">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>8</v>
@@ -1056,13 +1086,13 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>15322</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2.6</v>
+        <v>15323</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
@@ -1077,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1086,13 +1116,13 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>15323</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>15324</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
@@ -1116,10 +1146,10 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>15324</v>
+        <v>15328</v>
       </c>
       <c r="B25" s="2">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -1140,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>15328</v>
+        <v>15329</v>
       </c>
       <c r="B26" s="2">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>8</v>
@@ -1170,34 +1200,34 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>15329</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2.4</v>
+        <v>15330</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1206,7 +1236,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>15330</v>
+        <v>15331</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>12</v>
@@ -1236,13 +1266,13 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>15331</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>15332</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -1257,19 +1287,19 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>15332</v>
+        <v>15335</v>
       </c>
       <c r="B30" s="2">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -1287,22 +1317,24 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>15335</v>
+        <v>15339</v>
       </c>
       <c r="B31" s="2">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
@@ -1320,21 +1352,19 @@
         <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>15339</v>
+        <v>15340</v>
       </c>
       <c r="B32" s="2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>13</v>
@@ -1352,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>15340</v>
+        <v>15341</v>
       </c>
       <c r="B33" s="2">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -1384,17 +1414,19 @@
       <c r="I33" s="1">
         <v>0</v>
       </c>
-      <c r="J33" s="3"/>
+      <c r="J33" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>15341</v>
+        <v>15345</v>
       </c>
       <c r="B34" s="2">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -1412,18 +1444,18 @@
         <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>15345</v>
+        <v>15347</v>
       </c>
       <c r="B35" s="2">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
@@ -1441,21 +1473,19 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>15347</v>
-      </c>
-      <c r="B36" s="2">
-        <v>3.6</v>
+        <v>15348</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
@@ -1476,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>15348</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
+        <v>15352</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1512,13 +1542,13 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>15352</v>
+        <v>15355</v>
       </c>
       <c r="B38" s="2">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -1533,19 +1563,19 @@
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>15355</v>
+        <v>15356</v>
       </c>
       <c r="B39" s="2">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -1566,28 +1596,28 @@
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>15356</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2.8</v>
+        <v>15358</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -1598,17 +1628,19 @@
       <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="J40" s="3"/>
+      <c r="J40" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>15358</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2</v>
+        <v>15360</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>8</v>
@@ -1626,80 +1658,78 @@
         <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>15360</v>
+        <v>15366</v>
       </c>
       <c r="B42" s="2">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>15364</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>15366</v>
-      </c>
-      <c r="B43" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>15364</v>
+        <v>15365</v>
       </c>
       <c r="B44" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>7</v>
@@ -1720,49 +1750,51 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>15365</v>
+        <v>15368</v>
       </c>
       <c r="B45" s="4">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
       <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
         <v>0</v>
       </c>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>15368</v>
+        <v>15376</v>
       </c>
       <c r="B46" s="4">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -1777,36 +1809,34 @@
         <v>0</v>
       </c>
       <c r="H46" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>15376</v>
+        <v>15384</v>
       </c>
       <c r="B47" s="4">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
       <c r="G47" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4">
         <v>0</v>
@@ -1818,28 +1848,28 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>15384</v>
+        <v>15395</v>
       </c>
       <c r="B48" s="4">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
       <c r="H48" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4">
         <v>1</v>
@@ -1848,10 +1878,10 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>15395</v>
+        <v>15397</v>
       </c>
       <c r="B49" s="4">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
@@ -1878,10 +1908,10 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>15397</v>
+        <v>15398</v>
       </c>
       <c r="B50" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
@@ -1899,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="4">
         <v>1</v>
@@ -1908,10 +1938,10 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>15398</v>
+        <v>15416</v>
       </c>
       <c r="B51" s="4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>5</v>
@@ -1938,13 +1968,13 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>15416</v>
+        <v>15417</v>
       </c>
       <c r="B52" s="4">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>11</v>
@@ -1959,31 +1989,31 @@
         <v>0</v>
       </c>
       <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
         <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
       </c>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>15417</v>
+        <v>15402</v>
       </c>
       <c r="B53" s="4">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
         <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
       </c>
       <c r="G53" s="4">
         <v>0</v>
@@ -1992,13 +2022,15 @@
         <v>1</v>
       </c>
       <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>15402</v>
+      <c r="A54" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -2007,13 +2039,13 @@
         <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4">
         <v>0</v>
@@ -2025,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2033,10 +2065,10 @@
         <v>25</v>
       </c>
       <c r="B55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>11</v>
@@ -2054,30 +2086,30 @@
         <v>1</v>
       </c>
       <c r="I55" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
+      <c r="A56" s="4">
+        <v>15400</v>
       </c>
       <c r="B56" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
         <v>0</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
       </c>
       <c r="G56" s="4">
         <v>0</v>
@@ -2086,33 +2118,31 @@
         <v>1</v>
       </c>
       <c r="I56" s="4">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>15400</v>
+        <v>15405</v>
       </c>
       <c r="B57" s="4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
       </c>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="4">
         <v>1</v>
@@ -2124,52 +2154,52 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>15405</v>
+        <v>15407</v>
       </c>
       <c r="B58" s="4">
         <v>3.1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="4">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4">
-        <v>1</v>
-      </c>
-      <c r="I58" s="4">
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
         <v>1</v>
       </c>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>15407</v>
-      </c>
-      <c r="B59" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>8</v>
+      <c r="A59" s="5">
+        <v>15411</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3.11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
       </c>
       <c r="F59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -2184,22 +2214,22 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>15411</v>
+        <v>15415</v>
       </c>
       <c r="B60" s="5">
-        <v>3.11</v>
+        <v>3.9</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E60" s="5">
         <v>1</v>
       </c>
       <c r="F60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="5">
         <v>1</v>
@@ -2214,10 +2244,10 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
-        <v>15415</v>
+        <v>15423</v>
       </c>
       <c r="B61" s="5">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>7</v>
@@ -2244,22 +2274,22 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>15423</v>
+        <v>15426</v>
       </c>
       <c r="B62" s="5">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
       <c r="F62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="5">
         <v>1</v>
@@ -2274,16 +2304,16 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>15426</v>
+        <v>15465</v>
       </c>
       <c r="B63" s="5">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E63" s="5">
         <v>1</v>
@@ -2292,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="5">
         <v>1</v>
@@ -2304,13 +2334,13 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
-        <v>15465</v>
+        <v>15470</v>
       </c>
       <c r="B64" s="5">
         <v>3</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>6</v>
@@ -2330,14 +2360,16 @@
       <c r="I64" s="5">
         <v>1</v>
       </c>
-      <c r="J64" s="3"/>
+      <c r="J64" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
-        <v>15470</v>
+        <v>15475</v>
       </c>
       <c r="B65" s="5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>7</v>
@@ -2360,38 +2392,18 @@
       <c r="I65" s="5">
         <v>1</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>15475</v>
-      </c>
-      <c r="B66" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="5">
-        <v>1</v>
-      </c>
-      <c r="F66" s="5">
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="I66" s="5">
-        <v>1</v>
-      </c>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13506,18 +13518,6 @@
       <c r="I992" s="3"/>
       <c r="J992" s="3"/>
     </row>
-    <row r="993" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="3"/>
-      <c r="B993" s="3"/>
-      <c r="C993" s="3"/>
-      <c r="D993" s="3"/>
-      <c r="E993" s="3"/>
-      <c r="F993" s="3"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
-      <c r="I993" s="3"/>
-      <c r="J993" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -13528,8 +13528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0EE116-94CD-41DB-91D8-C7CF2D71E2E7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/soc_experiment_data_final_data_01082020.xlsx
+++ b/soc_experiment_data_final_data_01082020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F800A33-62A9-4D2F-89E5-44BBEACB46B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22058D5-C914-4420-82F3-51068308A049}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -13528,7 +13528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0EE116-94CD-41DB-91D8-C7CF2D71E2E7}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -13784,7 +13784,9 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
